--- a/ACTIVIDADES/ACTIVIDAD 4/Ejercicio 15.xlsx
+++ b/ACTIVIDADES/ACTIVIDAD 4/Ejercicio 15.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UADER\Tercero\Probabilidad y Estadistica\Guia 1\ACTIVIDADES\ACTIVIDAD 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gonzalo\Desktop\tercero\Probabilidad y estadistica\Prob-y-Estadistica\ACTIVIDADES\ACTIVIDAD 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E0D75B8-454D-4F9F-A3EF-DBC8D9C80A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6505CA-6E00-48DE-AF3D-50811F204FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4035" yWindow="5310" windowWidth="22365" windowHeight="8880" xr2:uid="{5F5EAD3C-AF7E-4E4F-8FC4-5706D79076BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5F5EAD3C-AF7E-4E4F-8FC4-5706D79076BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -69,14 +69,14 @@
     <t>DECIL 7</t>
   </si>
   <si>
-    <t>EL 30% DE LOS ALUMNOS, QUE APROBARON, TUVIERON UNA PUNTUAICON MAYOR O IGUAL A 71,5 PUNTOS</t>
+    <t>EL 30% DE LOS POSTULANTES ES ADMITIDO CON UNA PUNTUACION DE 73,24</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +107,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -128,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -139,17 +147,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -467,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47ED8CE2-6105-4EF6-807D-EF52A103E979}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:K16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,8 +542,8 @@
         <v>16</v>
       </c>
       <c r="E3" s="1">
-        <f>SUM(B3, C3)</f>
-        <v>70</v>
+        <f>SUM(E2, D3)</f>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -545,9 +559,9 @@
       <c r="D4" s="1">
         <v>21</v>
       </c>
-      <c r="E4" s="1">
-        <f t="shared" ref="E4:E9" si="0">SUM(B4, C4)</f>
-        <v>90</v>
+      <c r="E4" s="3">
+        <f t="shared" ref="E4:E9" si="0">SUM(E3, D4)</f>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -563,9 +577,9 @@
       <c r="D5" s="1">
         <v>34</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="3">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -581,9 +595,9 @@
       <c r="D6" s="1">
         <v>50</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="3">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -599,9 +613,9 @@
       <c r="D7" s="1">
         <v>37</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="3">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -617,9 +631,9 @@
       <c r="D8" s="1">
         <v>20</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="3">
         <f t="shared" si="0"/>
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -635,9 +649,9 @@
       <c r="D9" s="1">
         <v>15</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="3">
         <f t="shared" si="0"/>
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -648,14 +662,14 @@
         <f>ISEVEN(E9)</f>
         <v>1</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D12">
         <f>(A14*E9)/B14</f>
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -665,11 +679,11 @@
       <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -678,34 +692,34 @@
       <c r="B14">
         <v>10</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="6">
         <f xml:space="preserve"> B7 + (C7-B7)*((D12-E6)/(E7-E6))</f>
-        <v>71.5</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+        <v>73.243243243243242</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
